--- a/excel/collective/zestawy_dla_uczniow/zestaw_048.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_048.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
   <si>
     <t>ZESTAW ZADAŃ NR 48 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Julia Rogalska</t>
-  </si>
-  <si>
-    <t>Antoni Wojciechowski</t>
-  </si>
-  <si>
-    <t>Maja Piekarska</t>
-  </si>
-  <si>
-    <t>Adam Jankowski</t>
-  </si>
-  <si>
-    <t>Jakub Kowalczyk</t>
+    <t>Hanna Jaworska</t>
+  </si>
+  <si>
+    <t>Jan Lewandowski</t>
+  </si>
+  <si>
+    <t>Amelia Borkowska</t>
+  </si>
+  <si>
+    <t>Julia Król</t>
+  </si>
+  <si>
+    <t>Szymon Wojciechowski</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,42 +160,39 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>3,90</t>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>0,90</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>10,70</t>
   </si>
   <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,20</t>
+    <t>4,30</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>8,00</t>
   </si>
   <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>4,50</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>12,70</t>
+    <t>5,60</t>
   </si>
   <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>0,50</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>3,40</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,31 +217,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>19,02</t>
+    <t>15,13</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>2,69</t>
+    <t>1,71</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>17,79</t>
+    <t>11,08</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>3,92</t>
+    <t>22,89</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>17,27</t>
+    <t>1,92</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +250,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>16,77</t>
-  </si>
-  <si>
-    <t>30,32</t>
-  </si>
-  <si>
-    <t>9,19</t>
-  </si>
-  <si>
-    <t>28,24</t>
-  </si>
-  <si>
-    <t>22,73</t>
+    <t>5,03</t>
+  </si>
+  <si>
+    <t>5,35</t>
+  </si>
+  <si>
+    <t>1,01</t>
+  </si>
+  <si>
+    <t>24,50</t>
+  </si>
+  <si>
+    <t>17,22</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +271,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>22,58</t>
-  </si>
-  <si>
-    <t>4,28</t>
-  </si>
-  <si>
-    <t>27,48</t>
-  </si>
-  <si>
-    <t>8,10</t>
-  </si>
-  <si>
-    <t>2,73</t>
+    <t>2,60</t>
+  </si>
+  <si>
+    <t>28,74</t>
+  </si>
+  <si>
+    <t>7,71</t>
+  </si>
+  <si>
+    <t>26,20</t>
+  </si>
+  <si>
+    <t>30,35</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,43 +337,46 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Czarnecka</t>
-  </si>
-  <si>
-    <t>Kacper</t>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Borkowska</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
   </si>
   <si>
     <t>Lewandowski</t>
   </si>
   <si>
-    <t>Maciejewska</t>
-  </si>
-  <si>
-    <t>Borkowska</t>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Sikorska</t>
   </si>
   <si>
     <t>Jakub</t>
   </si>
   <si>
-    <t>Kozłowski</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
     <t>Wojciechowski</t>
   </si>
   <si>
-    <t>Zieliński</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Kaźmierczak</t>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Król</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -412,166 +412,157 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Jan Krawczyk</t>
-  </si>
-  <si>
-    <t>14.09.1998</t>
-  </si>
-  <si>
-    <t>10 193,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Czarnecka</t>
-  </si>
-  <si>
-    <t>09.03.1999</t>
-  </si>
-  <si>
-    <t>12 732,00 zł</t>
+    <t>Anna Piekarska</t>
+  </si>
+  <si>
+    <t>26.11.1986</t>
+  </si>
+  <si>
+    <t>11 191,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Zawadzka</t>
+  </si>
+  <si>
+    <t>25.10.1983</t>
+  </si>
+  <si>
+    <t>4 702,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Zieliński</t>
+  </si>
+  <si>
+    <t>19.07.1986</t>
+  </si>
+  <si>
+    <t>14 766,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Dąbrowski</t>
+  </si>
+  <si>
+    <t>02.01.1992</t>
+  </si>
+  <si>
+    <t>2 647,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Piekarska</t>
+  </si>
+  <si>
+    <t>03.05.2002</t>
+  </si>
+  <si>
+    <t>6 716,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Lis</t>
+  </si>
+  <si>
+    <t>05.08.1991</t>
+  </si>
+  <si>
+    <t>13 509,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Kowalski</t>
+  </si>
+  <si>
+    <t>21.02.1996</t>
+  </si>
+  <si>
+    <t>10 515,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Wojciechowski</t>
+  </si>
+  <si>
+    <t>01.06.2005</t>
+  </si>
+  <si>
+    <t>12 068,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Lewandowski</t>
+  </si>
+  <si>
+    <t>06.02.1983</t>
+  </si>
+  <si>
+    <t>4 642,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Kaczmarek</t>
+  </si>
+  <si>
+    <t>07.01.1998</t>
+  </si>
+  <si>
+    <t>6 428,00 zł</t>
   </si>
   <si>
     <t>Hanna Wójcik</t>
   </si>
   <si>
-    <t>06.07.1998</t>
-  </si>
-  <si>
-    <t>8 330,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Piotrowski</t>
-  </si>
-  <si>
-    <t>17.03.1983</t>
-  </si>
-  <si>
-    <t>6 031,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Sadowska</t>
-  </si>
-  <si>
-    <t>22.12.1999</t>
-  </si>
-  <si>
-    <t>9 880,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Piekarska</t>
-  </si>
-  <si>
-    <t>02.03.1999</t>
-  </si>
-  <si>
-    <t>7 747,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Czarnecka</t>
-  </si>
-  <si>
-    <t>26.12.1992</t>
-  </si>
-  <si>
-    <t>12 849,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Kwiatkowski</t>
-  </si>
-  <si>
-    <t>16.09.1980</t>
-  </si>
-  <si>
-    <t>7 513,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Kaczmarek</t>
-  </si>
-  <si>
-    <t>27.04.1978</t>
-  </si>
-  <si>
-    <t>5 210,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Woźniak</t>
-  </si>
-  <si>
-    <t>23.03.1994</t>
-  </si>
-  <si>
-    <t>2 769,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Wilk</t>
-  </si>
-  <si>
-    <t>04.09.1978</t>
-  </si>
-  <si>
-    <t>3 951,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Jaworska</t>
-  </si>
-  <si>
-    <t>21.07.1998</t>
-  </si>
-  <si>
-    <t>14 733,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Kozłowski</t>
-  </si>
-  <si>
-    <t>17.08.1981</t>
-  </si>
-  <si>
-    <t>10 176,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Dąbrowski</t>
-  </si>
-  <si>
-    <t>27.11.2005</t>
-  </si>
-  <si>
-    <t>14 955,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Mazur</t>
-  </si>
-  <si>
-    <t>19.06.1989</t>
-  </si>
-  <si>
-    <t>9 784,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Kamiński</t>
-  </si>
-  <si>
-    <t>28.07.1976</t>
-  </si>
-  <si>
-    <t>12 442,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Urbaniak</t>
-  </si>
-  <si>
-    <t>10.06.2005</t>
-  </si>
-  <si>
-    <t>9 054,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Kaczmarek</t>
-  </si>
-  <si>
-    <t>05.06.2002</t>
-  </si>
-  <si>
-    <t>10 831,00 zł</t>
+    <t>06.12.1978</t>
+  </si>
+  <si>
+    <t>3 734,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Górska</t>
+  </si>
+  <si>
+    <t>02.09.1989</t>
+  </si>
+  <si>
+    <t>11 522,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>03.03.1982</t>
+  </si>
+  <si>
+    <t>10 510,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalczyk</t>
+  </si>
+  <si>
+    <t>28.06.1976</t>
+  </si>
+  <si>
+    <t>3 830,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Kubiak</t>
+  </si>
+  <si>
+    <t>27.04.2005</t>
+  </si>
+  <si>
+    <t>8 564,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Wilk</t>
+  </si>
+  <si>
+    <t>11.09.1997</t>
+  </si>
+  <si>
+    <t>5 030,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Piotrowski</t>
+  </si>
+  <si>
+    <t>10.06.1985</t>
+  </si>
+  <si>
+    <t>10 664,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -643,340 +634,322 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Marzec</t>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 086,00 zł</t>
+  </si>
+  <si>
+    <t>1 368,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 327,00 zł</t>
+  </si>
+  <si>
+    <t>1 685,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>1 479,00 zł</t>
+  </si>
+  <si>
+    <t>1 760,00 zł</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 332,00 zł</t>
+  </si>
+  <si>
+    <t>1 758,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 442,00 zł</t>
+  </si>
+  <si>
+    <t>1 817,00 zł</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 449,00 zł</t>
+  </si>
+  <si>
+    <t>1 652,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>588,00 zł</t>
+  </si>
+  <si>
+    <t>764,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>930,00 zł</t>
+  </si>
+  <si>
+    <t>1 042,00 zł</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 407,00 zł</t>
+  </si>
+  <si>
+    <t>1 899,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 401,00 zł</t>
+  </si>
+  <si>
+    <t>1 555,00 zł</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>1 334,00 zł</t>
+  </si>
+  <si>
+    <t>1 868,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>897,00 zł</t>
+  </si>
+  <si>
+    <t>1 121,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>1 412,00 zł</t>
+  </si>
+  <si>
+    <t>1 779,00 zł</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>888,00 zł</t>
+  </si>
+  <si>
+    <t>1 243,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>1 438,00 zł</t>
+  </si>
+  <si>
+    <t>1 582,00 zł</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>1 046,00 zł</t>
+  </si>
+  <si>
+    <t>1 433,00 zł</t>
+  </si>
+  <si>
+    <t>1 277,00 zł</t>
+  </si>
+  <si>
+    <t>1 609,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 189,00 zł</t>
+  </si>
+  <si>
+    <t>1 498,00 zł</t>
+  </si>
+  <si>
+    <t>573,00 zł</t>
+  </si>
+  <si>
+    <t>711,00 zł</t>
+  </si>
+  <si>
+    <t>826,00 zł</t>
+  </si>
+  <si>
+    <t>1 016,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 268,00 zł</t>
+  </si>
+  <si>
+    <t>1 585,00 zł</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 124,00 zł</t>
+  </si>
+  <si>
+    <t>1 405,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 470,00 zł</t>
+  </si>
+  <si>
+    <t>1 896,00 zł</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>542,00 zł</t>
+  </si>
+  <si>
+    <t>705,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>1 130,00 zł</t>
+  </si>
+  <si>
+    <t>1 288,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>1 356,00 zł</t>
+  </si>
+  <si>
+    <t>1 519,00 zł</t>
+  </si>
+  <si>
+    <t>1 161,00 zł</t>
   </si>
   <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 257,00 zł</t>
-  </si>
-  <si>
-    <t>1 496,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 381,00 zł</t>
-  </si>
-  <si>
-    <t>1 726,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 391,00 zł</t>
-  </si>
-  <si>
-    <t>1 933,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 199,00 zł</t>
-  </si>
-  <si>
-    <t>1 379,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>825,00 zł</t>
-  </si>
-  <si>
-    <t>1 139,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 320,00 zł</t>
-  </si>
-  <si>
-    <t>1 690,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>676,00 zł</t>
-  </si>
-  <si>
-    <t>946,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>1 251,00 zł</t>
-  </si>
-  <si>
-    <t>1 451,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>1 386,00 zł</t>
-  </si>
-  <si>
-    <t>1 843,00 zł</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>547,00 zł</t>
-  </si>
-  <si>
-    <t>760,00 zł</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>912,00 zł</t>
-  </si>
-  <si>
-    <t>1 268,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 406,00 zł</t>
-  </si>
-  <si>
-    <t>1 631,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>976,00 zł</t>
-  </si>
-  <si>
-    <t>1 259,00 zł</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 219,00 zł</t>
-  </si>
-  <si>
-    <t>1 487,00 zł</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>514,00 zł</t>
-  </si>
-  <si>
-    <t>699,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 382,00 zł</t>
-  </si>
-  <si>
-    <t>1 534,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>1 233,00 zł</t>
-  </si>
-  <si>
-    <t>1 529,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 452,00 zł</t>
-  </si>
-  <si>
-    <t>2 004,00 zł</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>1 094,00 zł</t>
-  </si>
-  <si>
-    <t>1 280,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>1 131,00 zł</t>
-  </si>
-  <si>
-    <t>1 538,00 zł</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 222,00 zł</t>
-  </si>
-  <si>
-    <t>1 662,00 zł</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>822,00 zł</t>
-  </si>
-  <si>
-    <t>1 011,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 104,00 zł</t>
-  </si>
-  <si>
-    <t>1 468,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>721,00 zł</t>
-  </si>
-  <si>
-    <t>894,00 zł</t>
-  </si>
-  <si>
-    <t>1 348,00 zł</t>
-  </si>
-  <si>
-    <t>1 523,00 zł</t>
-  </si>
-  <si>
-    <t>587,00 zł</t>
-  </si>
-  <si>
-    <t>769,00 zł</t>
-  </si>
-  <si>
-    <t>1 441,00 zł</t>
-  </si>
-  <si>
-    <t>1 801,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>853,00 zł</t>
-  </si>
-  <si>
-    <t>998,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>732,00 zł</t>
-  </si>
-  <si>
-    <t>820,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>1 185,00 zł</t>
-  </si>
-  <si>
-    <t>1 351,00 zł</t>
+    <t>1 220,00 zł</t>
+  </si>
+  <si>
+    <t>1 342,00 zł</t>
+  </si>
+  <si>
+    <t>1 270,00 zł</t>
+  </si>
+  <si>
+    <t>1 435,00 zł</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1533,19 +1506,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1554,19 +1527,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
       <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1575,19 +1548,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3">
         <v>5</v>
       </c>
-      <c r="D19" s="3">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
       <c r="F19" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1599,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
         <v>5</v>
@@ -1617,19 +1590,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
         <v>6</v>
-      </c>
-      <c r="C21" s="3">
-        <v>5</v>
       </c>
       <c r="D21" s="3">
         <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1638,19 +1611,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
         <v>2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1662,16 +1635,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="3">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>5</v>
       </c>
-      <c r="D23" s="3">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4</v>
-      </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1680,19 +1653,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
       </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1704,13 +1677,13 @@
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3">
         <v>6</v>
@@ -1725,10 +1698,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>6</v>
@@ -1746,13 +1719,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3">
         <v>2</v>
@@ -1764,19 +1737,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="3">
         <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1898,7 +1871,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1928,7 +1901,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1943,7 +1916,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1958,7 +1931,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1970,7 +1943,7 @@
         <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
@@ -1982,7 +1955,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -2017,7 +1990,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2042,27 +2015,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2084,61 +2057,61 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C15" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C16" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="C17" s="3">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C18" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="C19" s="3">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2146,7 +2119,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -2158,7 +2131,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2180,61 +2153,61 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="3">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="3">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="3">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2242,7 +2215,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -2254,7 +2227,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2276,73 +2249,73 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="3">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -2388,53 +2361,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -2446,7 +2419,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>24</v>
@@ -2455,25 +2428,25 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
@@ -2482,16 +2455,16 @@
         <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I12" s="3">
         <v>6</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2499,31 +2472,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="3">
         <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2531,31 +2504,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>2</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>6</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5</v>
       </c>
       <c r="H14" s="3">
         <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2563,31 +2536,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
       <c r="F15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
         <v>6</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2595,31 +2568,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3">
         <v>3</v>
       </c>
-      <c r="H16" s="3">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3">
-        <v>4</v>
-      </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2633,22 +2606,22 @@
         <v>115</v>
       </c>
       <c r="D17" s="3">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3</v>
-      </c>
       <c r="H17" s="3">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
         <v>2</v>
-      </c>
-      <c r="I17" s="3">
-        <v>6</v>
       </c>
       <c r="J17" s="3">
         <v>2</v>
@@ -2659,31 +2632,31 @@
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3">
         <v>4</v>
       </c>
       <c r="I18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2691,16 +2664,16 @@
     <row r="19" spans="1:12">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
         <v>3</v>
@@ -2709,13 +2682,13 @@
         <v>2</v>
       </c>
       <c r="H19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" s="3">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3">
         <v>2</v>
-      </c>
-      <c r="J19" s="3">
-        <v>3</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2769,10 +2742,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A32" sqref="A32:B34"/>
+      <selection activeCell="A31" sqref="A31:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3015,44 +2988,33 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B28" s="3" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>182</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>184</v>
+      <c r="B31" s="14" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>185</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>187</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3070,10 +3032,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A49" sqref="A49:B53"/>
+      <selection activeCell="A48" sqref="A48:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3089,7 +3051,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3099,75 +3061,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3175,22 +3137,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3198,22 +3160,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3221,22 +3183,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3244,22 +3206,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3267,22 +3229,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3290,22 +3252,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3313,22 +3275,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3336,22 +3298,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3359,22 +3321,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3382,22 +3344,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3405,22 +3367,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3428,22 +3390,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3451,19 +3413,19 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>256</v>
@@ -3474,22 +3436,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3497,22 +3459,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3520,22 +3482,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3543,22 +3505,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3566,22 +3528,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3589,22 +3551,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3612,22 +3574,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3635,22 +3597,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3658,22 +3620,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3681,22 +3643,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3704,22 +3666,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3727,22 +3689,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3750,22 +3712,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3773,22 +3735,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3796,22 +3758,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3819,90 +3781,67 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="3">
-        <v>30</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G45" s="3" t="s">
         <v>309</v>
       </c>
     </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="13" t="s">
-        <v>184</v>
+      <c r="A48" t="s">
+        <v>310</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>323</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_048.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_048.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>ZESTAW ZADAŃ NR 48 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 48 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,33 +148,18 @@
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>0,90</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>10,70</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>4,30</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>8,00</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>5,60</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
@@ -217,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>15,13</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>1,71</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>11,08</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>22,89</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>1,92</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>5,03</t>
-  </si>
-  <si>
-    <t>5,35</t>
-  </si>
-  <si>
-    <t>1,01</t>
-  </si>
-  <si>
-    <t>24,50</t>
-  </si>
-  <si>
-    <t>17,22</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>2,60</t>
-  </si>
-  <si>
-    <t>28,74</t>
-  </si>
-  <si>
-    <t>7,71</t>
-  </si>
-  <si>
-    <t>26,20</t>
-  </si>
-  <si>
-    <t>30,35</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -304,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -418,153 +343,102 @@
     <t>26.11.1986</t>
   </si>
   <si>
-    <t>11 191,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Zawadzka</t>
   </si>
   <si>
     <t>25.10.1983</t>
   </si>
   <si>
-    <t>4 702,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Zieliński</t>
   </si>
   <si>
     <t>19.07.1986</t>
   </si>
   <si>
-    <t>14 766,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Dąbrowski</t>
   </si>
   <si>
     <t>02.01.1992</t>
   </si>
   <si>
-    <t>2 647,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Piekarska</t>
   </si>
   <si>
     <t>03.05.2002</t>
   </si>
   <si>
-    <t>6 716,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Lis</t>
   </si>
   <si>
     <t>05.08.1991</t>
   </si>
   <si>
-    <t>13 509,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Kowalski</t>
   </si>
   <si>
     <t>21.02.1996</t>
   </si>
   <si>
-    <t>10 515,00 zł</t>
-  </si>
-  <si>
     <t>Adam Wojciechowski</t>
   </si>
   <si>
     <t>01.06.2005</t>
   </si>
   <si>
-    <t>12 068,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Lewandowski</t>
   </si>
   <si>
     <t>06.02.1983</t>
   </si>
   <si>
-    <t>4 642,00 zł</t>
-  </si>
-  <si>
     <t>Filip Kaczmarek</t>
   </si>
   <si>
     <t>07.01.1998</t>
   </si>
   <si>
-    <t>6 428,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Wójcik</t>
   </si>
   <si>
     <t>06.12.1978</t>
   </si>
   <si>
-    <t>3 734,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Górska</t>
   </si>
   <si>
     <t>02.09.1989</t>
   </si>
   <si>
-    <t>11 522,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Kaźmierczak</t>
   </si>
   <si>
     <t>03.03.1982</t>
   </si>
   <si>
-    <t>10 510,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalczyk</t>
   </si>
   <si>
     <t>28.06.1976</t>
   </si>
   <si>
-    <t>3 830,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Kubiak</t>
   </si>
   <si>
     <t>27.04.2005</t>
   </si>
   <si>
-    <t>8 564,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Wilk</t>
   </si>
   <si>
     <t>11.09.1997</t>
   </si>
   <si>
-    <t>5 030,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Piotrowski</t>
   </si>
   <si>
     <t>10.06.1985</t>
   </si>
   <si>
-    <t>10 664,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -577,9 +451,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -640,12 +511,6 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 086,00 zł</t>
-  </si>
-  <si>
-    <t>1 368,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -658,12 +523,6 @@
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 327,00 zł</t>
-  </si>
-  <si>
-    <t>1 685,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -673,24 +532,12 @@
     <t>kwiecień</t>
   </si>
   <si>
-    <t>1 479,00 zł</t>
-  </si>
-  <si>
-    <t>1 760,00 zł</t>
-  </si>
-  <si>
     <t>małopolskie</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 332,00 zł</t>
-  </si>
-  <si>
-    <t>1 758,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -700,33 +547,15 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 442,00 zł</t>
-  </si>
-  <si>
-    <t>1 817,00 zł</t>
-  </si>
-  <si>
     <t>opolskie</t>
   </si>
   <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 449,00 zł</t>
-  </si>
-  <si>
-    <t>1 652,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
-    <t>588,00 zł</t>
-  </si>
-  <si>
-    <t>764,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -736,12 +565,6 @@
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>930,00 zł</t>
-  </si>
-  <si>
-    <t>1 042,00 zł</t>
-  </si>
-  <si>
     <t>dolnośląskie</t>
   </si>
   <si>
@@ -751,93 +574,39 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 407,00 zł</t>
-  </si>
-  <si>
-    <t>1 899,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 401,00 zł</t>
-  </si>
-  <si>
-    <t>1 555,00 zł</t>
-  </si>
-  <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
-    <t>1 334,00 zł</t>
-  </si>
-  <si>
-    <t>1 868,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>897,00 zł</t>
-  </si>
-  <si>
-    <t>1 121,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>1 412,00 zł</t>
-  </si>
-  <si>
-    <t>1 779,00 zł</t>
-  </si>
-  <si>
     <t>luty</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>888,00 zł</t>
-  </si>
-  <si>
-    <t>1 243,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>1 438,00 zł</t>
-  </si>
-  <si>
-    <t>1 582,00 zł</t>
-  </si>
-  <si>
     <t>lubelskie</t>
   </si>
   <si>
-    <t>1 046,00 zł</t>
-  </si>
-  <si>
-    <t>1 433,00 zł</t>
-  </si>
-  <si>
-    <t>1 277,00 zł</t>
-  </si>
-  <si>
-    <t>1 609,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -847,24 +616,6 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 189,00 zł</t>
-  </si>
-  <si>
-    <t>1 498,00 zł</t>
-  </si>
-  <si>
-    <t>573,00 zł</t>
-  </si>
-  <si>
-    <t>711,00 zł</t>
-  </si>
-  <si>
-    <t>826,00 zł</t>
-  </si>
-  <si>
-    <t>1 016,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
@@ -874,79 +625,28 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 268,00 zł</t>
-  </si>
-  <si>
-    <t>1 585,00 zł</t>
-  </si>
-  <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 124,00 zł</t>
-  </si>
-  <si>
-    <t>1 405,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 470,00 zł</t>
-  </si>
-  <si>
-    <t>1 896,00 zł</t>
-  </si>
-  <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>542,00 zł</t>
-  </si>
-  <si>
-    <t>705,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
-    <t>1 130,00 zł</t>
-  </si>
-  <si>
-    <t>1 288,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>łódzkie</t>
   </si>
   <si>
-    <t>1 356,00 zł</t>
-  </si>
-  <si>
-    <t>1 519,00 zł</t>
-  </si>
-  <si>
-    <t>1 161,00 zł</t>
-  </si>
-  <si>
     <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 220,00 zł</t>
-  </si>
-  <si>
-    <t>1 342,00 zł</t>
-  </si>
-  <si>
-    <t>1 270,00 zł</t>
-  </si>
-  <si>
-    <t>1 435,00 zł</t>
   </si>
   <si>
     <t>podkarpackie</t>
@@ -971,7 +671,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1028,14 +730,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1046,8 +748,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1078,30 +780,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1404,7 +1107,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1479,25 +1182,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1520,7 +1223,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1541,7 +1244,7 @@
       <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1562,7 +1265,7 @@
       <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1583,7 +1286,7 @@
       <c r="F20" s="3">
         <v>6</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1604,7 +1307,7 @@
       <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1625,7 +1328,7 @@
       <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1646,7 +1349,7 @@
       <c r="F23" s="3">
         <v>6</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1667,7 +1370,7 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1688,7 +1391,7 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1709,7 +1412,7 @@
       <c r="F26" s="3">
         <v>6</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1730,7 +1433,7 @@
       <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1751,27 +1454,17 @@
       <c r="F28" s="3">
         <v>2</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1805,7 +1498,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1825,7 +1518,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1835,29 +1528,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1865,99 +1558,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.9</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10.7</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4.3</v>
       </c>
       <c r="D15" s="3">
         <v>7</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8</v>
       </c>
       <c r="D16" s="3">
         <v>10</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5.6</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.9</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1990,7 +1683,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2015,113 +1708,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>63</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>15.13</v>
       </c>
       <c r="C15" s="3">
         <v>13</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1.71</v>
       </c>
       <c r="C16" s="3">
         <v>45</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>11.08</v>
       </c>
       <c r="C17" s="3">
         <v>39</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>22.89</v>
       </c>
       <c r="C18" s="3">
         <v>12</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1.92</v>
       </c>
       <c r="C19" s="3">
         <v>37</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2130,94 +1823,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>75</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>5.03</v>
       </c>
       <c r="C24" s="3">
         <v>10</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>5.35</v>
       </c>
       <c r="C25" s="3">
         <v>41</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1.01</v>
       </c>
       <c r="C26" s="3">
         <v>17</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>24.5</v>
       </c>
       <c r="C27" s="3">
         <v>10</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>17.22</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2226,98 +1919,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>82</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2.6</v>
       </c>
       <c r="C33" s="3">
         <v>36</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>28.74</v>
       </c>
       <c r="C34" s="3">
         <v>6</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>7.71</v>
       </c>
       <c r="C35" s="3">
         <v>17</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>26.2</v>
       </c>
       <c r="C36" s="3">
         <v>43</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>30.35</v>
       </c>
       <c r="C37" s="3">
         <v>45</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2340,7 +2033,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2360,90 +2053,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>90</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>104</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -2466,16 +2159,16 @@
       <c r="J12" s="3">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
@@ -2498,16 +2191,16 @@
       <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -2530,16 +2223,16 @@
       <c r="J14" s="3">
         <v>2</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
@@ -2562,16 +2255,16 @@
       <c r="J15" s="3">
         <v>6</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -2594,16 +2287,16 @@
       <c r="J16" s="3">
         <v>6</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
@@ -2626,16 +2319,16 @@
       <c r="J17" s="3">
         <v>2</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
@@ -2658,16 +2351,16 @@
       <c r="J18" s="3">
         <v>5</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3">
         <v>3</v>
@@ -2690,40 +2383,40 @@
       <c r="J19" s="3">
         <v>2</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2756,266 +2449,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>121</v>
+      <c r="A1" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>129</v>
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="7">
+        <v>11191</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4702</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>14766</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2647</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>114</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6716</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>116</v>
+      </c>
+      <c r="C16" s="7">
+        <v>13509</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10515</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>120</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12068</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>122</v>
+      </c>
+      <c r="C19" s="7">
+        <v>4642</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>159</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6428</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>162</v>
+        <v>126</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3734</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>165</v>
+        <v>128</v>
+      </c>
+      <c r="C22" s="7">
+        <v>11522</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>168</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10510</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>171</v>
+        <v>132</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3830</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>174</v>
+        <v>134</v>
+      </c>
+      <c r="C25" s="7">
+        <v>8564</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>177</v>
+        <v>136</v>
+      </c>
+      <c r="C26" s="7">
+        <v>5030</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>180</v>
+        <v>138</v>
+      </c>
+      <c r="C27" s="7">
+        <v>10664</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13" t="s">
-        <v>181</v>
+      <c r="A30" s="17" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>185</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>185</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>185</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B33" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3050,86 +2737,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>186</v>
+      <c r="A1" s="15" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>203</v>
+      <c r="A15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3137,22 +2824,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>207</v>
+        <v>162</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1086</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1368</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3160,22 +2847,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1327</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1685</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3183,22 +2870,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>218</v>
+        <v>166</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1479</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1760</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3206,22 +2893,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1332</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1758</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3229,22 +2916,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>227</v>
+        <v>174</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1442</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1817</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3252,22 +2939,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1449</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1652</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3275,22 +2962,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>234</v>
+        <v>166</v>
+      </c>
+      <c r="D22" s="7">
+        <v>588</v>
+      </c>
+      <c r="E22" s="7">
+        <v>764</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3298,22 +2985,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>239</v>
+        <v>180</v>
+      </c>
+      <c r="D23" s="7">
+        <v>930</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1042</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3321,22 +3008,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1407</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1899</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3344,22 +3031,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>248</v>
+        <v>185</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1401</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1555</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3367,22 +3054,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1334</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1868</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3390,22 +3077,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>255</v>
+        <v>176</v>
+      </c>
+      <c r="D27" s="7">
+        <v>897</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1121</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3413,22 +3100,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>258</v>
+        <v>183</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1412</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1779</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3436,22 +3123,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>262</v>
+        <v>191</v>
+      </c>
+      <c r="D29" s="7">
+        <v>888</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1243</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3459,22 +3146,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>266</v>
+        <v>180</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1438</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1582</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3482,22 +3169,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>269</v>
+        <v>171</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1046</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1433</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3505,22 +3192,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>271</v>
+        <v>176</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1277</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1609</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3528,22 +3215,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>276</v>
+        <v>197</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1189</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1498</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3551,22 +3238,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>278</v>
+        <v>180</v>
+      </c>
+      <c r="D34" s="7">
+        <v>573</v>
+      </c>
+      <c r="E34" s="7">
+        <v>711</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3574,22 +3261,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>280</v>
+        <v>197</v>
+      </c>
+      <c r="D35" s="7">
+        <v>826</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1016</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3597,22 +3284,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>285</v>
+        <v>200</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1268</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1585</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3620,22 +3307,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>288</v>
+        <v>201</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1124</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1405</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>289</v>
+        <v>202</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3643,22 +3330,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>292</v>
+        <v>203</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1470</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1896</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>289</v>
+        <v>202</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3666,22 +3353,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>295</v>
+        <v>204</v>
+      </c>
+      <c r="D39" s="7">
+        <v>542</v>
+      </c>
+      <c r="E39" s="7">
+        <v>705</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3689,22 +3376,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>298</v>
+        <v>200</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1130</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1288</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>299</v>
+        <v>206</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>300</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3712,22 +3399,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>302</v>
+        <v>197</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1356</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1519</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>300</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3735,22 +3422,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>270</v>
+        <v>203</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1161</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1277</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3758,22 +3445,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>306</v>
+        <v>208</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1220</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1342</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3781,68 +3468,58 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>308</v>
+        <v>176</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1270</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1435</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>299</v>
+        <v>206</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>181</v>
+      <c r="A47" s="17" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>310</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>185</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>311</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>185</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>312</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>185</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>313</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>185</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>314</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>185</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B52" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_048.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_048.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Hanna Jaworska</t>
-  </si>
-  <si>
-    <t>Jan Lewandowski</t>
-  </si>
-  <si>
-    <t>Amelia Borkowska</t>
-  </si>
-  <si>
-    <t>Julia Król</t>
-  </si>
-  <si>
-    <t>Szymon Wojciechowski</t>
+    <t>Mikołaj Nowak</t>
+  </si>
+  <si>
+    <t>Hanna Kubiak</t>
+  </si>
+  <si>
+    <t>Kacper Kaczmarek</t>
+  </si>
+  <si>
+    <t>Aleksander Szymański</t>
+  </si>
+  <si>
+    <t>Mikołaj Lewandowski</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 48 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,24 +149,24 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,49 +266,46 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Borkowska</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Sikorska</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Bednarska</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Krawczyk</t>
   </si>
   <si>
     <t>Zuzanna</t>
   </si>
   <si>
-    <t>Borkowska</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Lewandowski</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Malinowska</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Piekarska</t>
-  </si>
-  <si>
-    <t>Sikorska</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Wojciechowski</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Król</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
+    <t>Zawadzka</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -337,121 +341,127 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Anna Piekarska</t>
-  </si>
-  <si>
-    <t>26.11.1986</t>
-  </si>
-  <si>
-    <t>Zuzanna Zawadzka</t>
-  </si>
-  <si>
-    <t>25.10.1983</t>
-  </si>
-  <si>
-    <t>Kacper Zieliński</t>
-  </si>
-  <si>
-    <t>19.07.1986</t>
-  </si>
-  <si>
-    <t>Wojciech Dąbrowski</t>
-  </si>
-  <si>
-    <t>02.01.1992</t>
-  </si>
-  <si>
-    <t>Hanna Piekarska</t>
-  </si>
-  <si>
-    <t>03.05.2002</t>
+    <t>Kacper Kowalczyk</t>
   </si>
   <si>
     <t>Zuzanna Lis</t>
   </si>
   <si>
-    <t>05.08.1991</t>
+    <t>Antoni Kaczmarek</t>
+  </si>
+  <si>
+    <t>Maja Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Lena Rogalska</t>
+  </si>
+  <si>
+    <t>Mikołaj Wiśniewski</t>
+  </si>
+  <si>
+    <t>Emilia Bednarska</t>
+  </si>
+  <si>
+    <t>Amelia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Lena Piekarska</t>
+  </si>
+  <si>
+    <t>Filip Zieliński</t>
+  </si>
+  <si>
+    <t>Natalia Maciejewska</t>
+  </si>
+  <si>
+    <t>Julia Lis</t>
+  </si>
+  <si>
+    <t>Jan Kowalczyk</t>
+  </si>
+  <si>
+    <t>Adam Woźniak</t>
+  </si>
+  <si>
+    <t>Adam Wojciechowski</t>
+  </si>
+  <si>
+    <t>Kacper Lewandowski</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Lena Borkowska</t>
+  </si>
+  <si>
+    <t>Kacper Kamiński</t>
+  </si>
+  <si>
+    <t>Hanna Wójcik</t>
+  </si>
+  <si>
+    <t>Oliwia Król</t>
+  </si>
+  <si>
+    <t>Zuzanna Piekarska</t>
+  </si>
+  <si>
+    <t>Hanna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Antoni Jankowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Wojciechowski</t>
+  </si>
+  <si>
+    <t>Antoni Mazur</t>
   </si>
   <si>
     <t>Aleksander Kowalski</t>
   </si>
   <si>
-    <t>21.02.1996</t>
-  </si>
-  <si>
-    <t>Adam Wojciechowski</t>
-  </si>
-  <si>
-    <t>01.06.2005</t>
-  </si>
-  <si>
-    <t>Aleksander Lewandowski</t>
-  </si>
-  <si>
-    <t>06.02.1983</t>
-  </si>
-  <si>
-    <t>Filip Kaczmarek</t>
-  </si>
-  <si>
-    <t>07.01.1998</t>
-  </si>
-  <si>
-    <t>Hanna Wójcik</t>
-  </si>
-  <si>
-    <t>06.12.1978</t>
-  </si>
-  <si>
-    <t>Oliwia Górska</t>
-  </si>
-  <si>
-    <t>02.09.1989</t>
-  </si>
-  <si>
-    <t>Natalia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>03.03.1982</t>
-  </si>
-  <si>
-    <t>Jan Kowalczyk</t>
-  </si>
-  <si>
-    <t>28.06.1976</t>
-  </si>
-  <si>
-    <t>Natalia Kubiak</t>
-  </si>
-  <si>
-    <t>27.04.2005</t>
-  </si>
-  <si>
-    <t>Oliwia Wilk</t>
-  </si>
-  <si>
-    <t>11.09.1997</t>
-  </si>
-  <si>
-    <t>Antoni Piotrowski</t>
-  </si>
-  <si>
-    <t>10.06.1985</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Adam Grabowski</t>
+  </si>
+  <si>
+    <t>Kacper Szymański</t>
+  </si>
+  <si>
+    <t>Emilia Lis</t>
+  </si>
+  <si>
+    <t>Antoni Kamiński</t>
+  </si>
+  <si>
+    <t>Hanna Król</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -505,151 +515,142 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
     <t>styczeń</t>
   </si>
   <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
+    <t>Karta graficzna RTX</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -721,7 +722,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,12 +745,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -780,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -791,13 +786,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1104,7 +1098,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1209,19 +1203,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
         <v>6</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1233,16 +1227,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1251,19 +1245,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
         <v>5</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4</v>
       </c>
       <c r="E19" s="3">
         <v>5</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1275,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
         <v>5</v>
@@ -1284,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1296,16 +1290,16 @@
         <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1314,16 +1308,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
         <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
@@ -1335,19 +1329,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
         <v>6</v>
       </c>
       <c r="D23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1356,19 +1350,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
       </c>
       <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3">
         <v>3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1377,16 +1371,16 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F25" s="3">
         <v>6</v>
@@ -1398,19 +1392,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
         <v>6</v>
       </c>
-      <c r="C26" s="3">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3">
-        <v>4</v>
-      </c>
       <c r="E26" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1422,16 +1416,16 @@
         <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E27" s="3">
         <v>4</v>
       </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1440,19 +1434,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
         <v>3</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>2</v>
       </c>
-      <c r="D28" s="3">
-        <v>5</v>
-      </c>
       <c r="E28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1465,6 +1459,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1498,7 +1498,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1518,7 +1518,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1528,29 +1528,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1558,99 +1558,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.9</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.1</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>10.7</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>21.6</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>4.3</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>13.2</v>
       </c>
       <c r="D15" s="3">
-        <v>7</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5.6</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.6</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.9</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.2</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1667,10 +1667,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1683,7 +1683,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1708,27 +1708,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1736,85 +1736,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>15.13</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>5.11</v>
       </c>
       <c r="C15" s="3">
-        <v>13</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1.71</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>27.71</v>
       </c>
       <c r="C16" s="3">
-        <v>45</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>11.08</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>21.59</v>
       </c>
       <c r="C17" s="3">
-        <v>39</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>22.89</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>10.48</v>
       </c>
       <c r="C18" s="3">
-        <v>12</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1.92</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>15.8</v>
       </c>
       <c r="C19" s="3">
-        <v>37</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1823,8 +1823,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1832,85 +1832,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>5.03</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>18.039999999999999</v>
       </c>
       <c r="C24" s="3">
-        <v>10</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>5.35</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>7.7</v>
       </c>
       <c r="C25" s="3">
-        <v>41</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>1.01</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>8.28</v>
       </c>
       <c r="C26" s="3">
-        <v>17</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>24.5</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>18.5</v>
       </c>
       <c r="C27" s="3">
-        <v>10</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>17.22</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>28.59</v>
       </c>
       <c r="C28" s="3">
-        <v>6</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1919,8 +1919,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1928,89 +1928,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>2.6</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>30.96</v>
       </c>
       <c r="C33" s="3">
-        <v>36</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>28.74</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>12.15</v>
       </c>
       <c r="C34" s="3">
-        <v>6</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>7.71</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>19.67</v>
       </c>
       <c r="C35" s="3">
-        <v>17</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>26.2</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>4.53</v>
       </c>
       <c r="C36" s="3">
-        <v>43</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>30.35</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>24.61</v>
       </c>
       <c r="C37" s="3">
-        <v>45</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2053,111 +2061,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
         <v>6</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
       </c>
       <c r="F12" s="3">
         <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="3">
         <v>6</v>
       </c>
       <c r="I12" s="3">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
         <v>6</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2165,31 +2173,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
         <v>4</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3">
-        <v>5</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
       </c>
       <c r="H13" s="3">
+        <v>4</v>
+      </c>
+      <c r="I13" s="3">
         <v>2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>3</v>
-      </c>
-      <c r="J13" s="3">
-        <v>2</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2197,25 +2205,25 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>5</v>
       </c>
       <c r="I14" s="3">
         <v>2</v>
@@ -2229,19 +2237,19 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15" s="3">
         <v>4</v>
@@ -2250,10 +2258,10 @@
         <v>2</v>
       </c>
       <c r="I15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2261,31 +2269,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="3">
-        <v>6</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
       <c r="G16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3">
         <v>3</v>
       </c>
       <c r="J16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2293,10 +2301,10 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
@@ -2305,19 +2313,19 @@
         <v>6</v>
       </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H17" s="3">
         <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2331,25 +2339,25 @@
         <v>92</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2</v>
-      </c>
-      <c r="J18" s="3">
-        <v>5</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -2357,38 +2365,38 @@
     <row r="19" spans="1:12">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
       </c>
       <c r="H19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2404,7 +2412,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2449,260 +2457,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>96</v>
+      <c r="A1" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="7">
-        <v>11191</v>
+      <c r="B11" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3175</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7">
-        <v>4702</v>
+      <c r="B12" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C12" s="8">
+        <v>14310</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="7">
-        <v>14766</v>
+        <v>108</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C13" s="8">
+        <v>8635</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2647</v>
+        <v>109</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3904</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="7">
-        <v>6716</v>
+        <v>110</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3743</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="7">
-        <v>13509</v>
+        <v>111</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C16" s="8">
+        <v>10413</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="7">
-        <v>10515</v>
+        <v>112</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C17" s="8">
+        <v>8757</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="7">
-        <v>12068</v>
+        <v>113</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C18" s="8">
+        <v>6511</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4642</v>
+        <v>114</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C19" s="8">
+        <v>6936</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="7">
-        <v>6428</v>
+        <v>115</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C20" s="8">
+        <v>8274</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3734</v>
+        <v>116</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4287</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="7">
-        <v>11522</v>
+        <v>108</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C22" s="8">
+        <v>10054</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="7">
-        <v>10510</v>
+        <v>117</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C23" s="8">
+        <v>5563</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3830</v>
+        <v>118</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C24" s="8">
+        <v>11548</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="7">
-        <v>8564</v>
+        <v>119</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2608</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="7">
-        <v>5030</v>
+        <v>120</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C26" s="8">
+        <v>13812</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="7">
-        <v>10664</v>
+        <v>121</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C27" s="8">
+        <v>10704</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="17" t="s">
-        <v>139</v>
+      <c r="A30" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="B33" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2719,10 +2727,239 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A10" sqref="A10:C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="3">
+        <v>152</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="3">
+        <v>106</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="3">
+        <v>181</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="3">
+        <v>123</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="3">
+        <v>119</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="3">
+        <v>136</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="3">
+        <v>100</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <v>176</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="3">
+        <v>166</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="3">
+        <v>91</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="3">
+        <v>149</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="3">
+        <v>171</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="3">
+        <v>118</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="3">
+        <v>133</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="3">
+        <v>116</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="3">
+        <v>197</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="3">
+        <v>94</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2737,86 +2974,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>143</v>
+      <c r="A1" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2824,22 +3061,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1086</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1368</v>
+        <v>165</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1386</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1677</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2847,22 +3084,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1327</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1685</v>
+        <v>169</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1494</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1838</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2870,22 +3107,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1479</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1760</v>
+        <v>173</v>
+      </c>
+      <c r="D18" s="8">
+        <v>809</v>
+      </c>
+      <c r="E18" s="8">
+        <v>955</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2893,22 +3130,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1332</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1758</v>
+        <v>177</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1115</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1561</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2916,22 +3153,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1442</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1817</v>
+        <v>180</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1292</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1744</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2939,22 +3176,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1449</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1652</v>
+        <v>173</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1193</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1634</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2962,22 +3199,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="7">
-        <v>588</v>
-      </c>
-      <c r="E22" s="7">
-        <v>764</v>
+        <v>184</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1140</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1288</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2985,22 +3222,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="7">
-        <v>930</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1042</v>
+      <c r="D23" s="8">
+        <v>1370</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1918</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3008,22 +3245,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1407</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1899</v>
+        <v>187</v>
+      </c>
+      <c r="D24" s="8">
+        <v>539</v>
+      </c>
+      <c r="E24" s="8">
+        <v>593</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3031,22 +3268,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1401</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1555</v>
+        <v>190</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1037</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1348</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3054,22 +3291,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1334</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1868</v>
+        <v>192</v>
+      </c>
+      <c r="D26" s="8">
+        <v>503</v>
+      </c>
+      <c r="E26" s="8">
+        <v>614</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3077,22 +3314,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="7">
-        <v>897</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1121</v>
+        <v>194</v>
+      </c>
+      <c r="D27" s="8">
+        <v>691</v>
+      </c>
+      <c r="E27" s="8">
+        <v>767</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3103,19 +3340,19 @@
         <v>182</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1412</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1779</v>
+        <v>187</v>
+      </c>
+      <c r="D28" s="8">
+        <v>682</v>
+      </c>
+      <c r="E28" s="8">
+        <v>880</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3123,22 +3360,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" s="7">
-        <v>888</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1243</v>
+        <v>184</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1200</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1548</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3146,22 +3383,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1438</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1582</v>
+        <v>190</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1175</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1316</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3169,22 +3406,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1046</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1433</v>
+        <v>200</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1100</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1221</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3192,22 +3429,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1277</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1609</v>
+      <c r="D32" s="8">
+        <v>1248</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1410</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3215,19 +3452,19 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1189</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1498</v>
+        <v>203</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1005</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1377</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>193</v>
@@ -3238,22 +3475,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="7">
-        <v>573</v>
-      </c>
-      <c r="E34" s="7">
-        <v>711</v>
+        <v>204</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1414</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1683</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3261,22 +3498,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35" s="7">
-        <v>826</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1016</v>
+        <v>203</v>
+      </c>
+      <c r="D35" s="8">
+        <v>938</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1191</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3284,22 +3521,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1268</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1585</v>
+        <v>165</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1159</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1599</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3307,22 +3544,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1124</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1405</v>
+        <v>204</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1349</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1565</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3330,22 +3567,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1470</v>
-      </c>
-      <c r="E38" s="7">
+        <v>187</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1394</v>
+      </c>
+      <c r="E38" s="8">
         <v>1896</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3353,22 +3590,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D39" s="7">
-        <v>542</v>
-      </c>
-      <c r="E39" s="7">
-        <v>705</v>
+      <c r="D39" s="8">
+        <v>1360</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1537</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3376,22 +3613,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1130</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1288</v>
+        <v>180</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1124</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1529</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3399,127 +3636,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1356</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1519</v>
+        <v>209</v>
+      </c>
+      <c r="D41" s="8">
+        <v>701</v>
+      </c>
+      <c r="E41" s="8">
+        <v>806</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1161</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1277</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1220</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1342</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1270</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1435</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>209</v>
-      </c>
+      <c r="A44" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="17" t="s">
-        <v>139</v>
-      </c>
+      <c r="A47" t="s">
+        <v>212</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>210</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>211</v>
-      </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>212</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>213</v>
-      </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
         <v>214</v>
       </c>
-      <c r="B52" s="6"/>
+      <c r="B49" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
